--- a/result/supertrend_DOW.xlsx
+++ b/result/supertrend_DOW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -498,42 +498,42 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>2.8</v>
       </c>
       <c r="H2">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="I2">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>9019.000000000477</v>
+        <v>17815.40000000017</v>
       </c>
       <c r="L2">
-        <v>9727</v>
+        <v>9494</v>
       </c>
       <c r="M2">
         <v>-811</v>
       </c>
       <c r="N2">
-        <v>8208.000000000477</v>
+        <v>17004.40000000017</v>
       </c>
       <c r="O2">
-        <v>0.3492340906754395</v>
+        <v>0.349589214240573</v>
       </c>
       <c r="P2">
-        <v>28.68175067703495</v>
+        <v>59.41958591770828</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -548,36 +548,236 @@
         <v>2023</v>
       </c>
       <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>2.8</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <v>150</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>11126.50000000017</v>
+      </c>
+      <c r="L3">
+        <v>9131</v>
+      </c>
+      <c r="M3">
+        <v>-748.5999999999985</v>
+      </c>
+      <c r="N3">
+        <v>10377.90000000018</v>
+      </c>
+      <c r="O3">
+        <v>0.349468842404994</v>
+      </c>
+      <c r="P3">
+        <v>36.26417401939436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>2.8</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>9019.000000000477</v>
+      </c>
+      <c r="L4">
+        <v>9727</v>
+      </c>
+      <c r="M4">
+        <v>-811</v>
+      </c>
+      <c r="N4">
+        <v>8208.000000000477</v>
+      </c>
+      <c r="O4">
+        <v>0.3492340906754395</v>
+      </c>
+      <c r="P4">
+        <v>28.68175067703495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>2.3</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-11301.59999999965</v>
+      </c>
+      <c r="L5">
+        <v>12644</v>
+      </c>
+      <c r="M5">
+        <v>-688</v>
+      </c>
+      <c r="N5">
+        <v>-11989.59999999965</v>
+      </c>
+      <c r="O5">
+        <v>0.3634925656437836</v>
+      </c>
+      <c r="P5">
+        <v>-41.89604263125587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-45137.59999999935</v>
+      </c>
+      <c r="L6">
+        <v>15058</v>
+      </c>
+      <c r="M6">
+        <v>-2008</v>
+      </c>
+      <c r="N6">
+        <v>-47145.59999999935</v>
+      </c>
+      <c r="O6">
+        <v>0.3588790011953779</v>
+      </c>
+      <c r="P6">
+        <v>-164.7439503800099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
         <v>70</v>
       </c>
-      <c r="G3">
+      <c r="G7">
         <v>0.6000000000000001</v>
       </c>
-      <c r="H3">
+      <c r="H7">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="I7">
         <v>450</v>
       </c>
-      <c r="J3">
+      <c r="J7">
         <v>150</v>
       </c>
-      <c r="K3">
+      <c r="K7">
         <v>-151904.500000001</v>
       </c>
-      <c r="L3">
+      <c r="L7">
         <v>28243</v>
       </c>
-      <c r="M3">
+      <c r="M7">
         <v>-1048</v>
       </c>
-      <c r="N3">
+      <c r="N7">
         <v>-152952.500000001</v>
       </c>
-      <c r="O3">
+      <c r="O7">
         <v>0.2569132174344085</v>
       </c>
-      <c r="P3">
+      <c r="P7">
         <v>-534.4719140386162</v>
       </c>
     </row>

--- a/result/supertrend_DOW.xlsx
+++ b/result/supertrend_DOW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,7 +533,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -548,42 +548,42 @@
         <v>2023</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I3">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
       <c r="K3">
-        <v>11126.50000000017</v>
+        <v>12748.60000000045</v>
       </c>
       <c r="L3">
-        <v>9131</v>
+        <v>13803</v>
       </c>
       <c r="M3">
-        <v>-748.5999999999985</v>
+        <v>-739.3999999999978</v>
       </c>
       <c r="N3">
-        <v>10377.90000000018</v>
+        <v>12009.20000000045</v>
       </c>
       <c r="O3">
-        <v>0.349468842404994</v>
+        <v>0.3375353184090415</v>
       </c>
       <c r="P3">
-        <v>36.26417401939436</v>
+        <v>41.96453219184223</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -598,42 +598,42 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2.8</v>
       </c>
       <c r="H4">
+        <v>500</v>
+      </c>
+      <c r="I4">
         <v>150</v>
-      </c>
-      <c r="I4">
-        <v>300</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>9019.000000000477</v>
+        <v>11126.50000000017</v>
       </c>
       <c r="L4">
-        <v>9727</v>
+        <v>9131</v>
       </c>
       <c r="M4">
-        <v>-811</v>
+        <v>-748.5999999999985</v>
       </c>
       <c r="N4">
-        <v>8208.000000000477</v>
+        <v>10377.90000000018</v>
       </c>
       <c r="O4">
-        <v>0.3492340906754395</v>
+        <v>0.349468842404994</v>
       </c>
       <c r="P4">
-        <v>28.68175067703495</v>
+        <v>36.26417401939436</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -651,39 +651,39 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H5">
+        <v>350</v>
+      </c>
+      <c r="I5">
         <v>300</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>-11301.59999999965</v>
+        <v>10978.10000000046</v>
       </c>
       <c r="L5">
-        <v>12644</v>
+        <v>7425</v>
       </c>
       <c r="M5">
-        <v>-688</v>
+        <v>-811</v>
       </c>
       <c r="N5">
-        <v>-11989.59999999965</v>
+        <v>10167.10000000046</v>
       </c>
       <c r="O5">
-        <v>0.3634925656437836</v>
+        <v>0.3554208754208754</v>
       </c>
       <c r="P5">
-        <v>-41.89604263125587</v>
+        <v>35.52756180658849</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -698,42 +698,42 @@
         <v>2023</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
         <v>100</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>-45137.59999999935</v>
+        <v>9019.000000000477</v>
       </c>
       <c r="L6">
-        <v>15058</v>
+        <v>9727</v>
       </c>
       <c r="M6">
-        <v>-2008</v>
+        <v>-811</v>
       </c>
       <c r="N6">
-        <v>-47145.59999999935</v>
+        <v>8208.000000000477</v>
       </c>
       <c r="O6">
-        <v>0.3588790011953779</v>
+        <v>0.3492340906754395</v>
       </c>
       <c r="P6">
-        <v>-164.7439503800099</v>
+        <v>28.68175067703495</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -751,33 +751,1133 @@
         <v>70</v>
       </c>
       <c r="G7">
+        <v>1.1</v>
+      </c>
+      <c r="H7">
+        <v>250</v>
+      </c>
+      <c r="I7">
+        <v>400</v>
+      </c>
+      <c r="J7">
+        <v>250</v>
+      </c>
+      <c r="K7">
+        <v>8304.299999999559</v>
+      </c>
+      <c r="L7">
+        <v>12113</v>
+      </c>
+      <c r="M7">
+        <v>-651</v>
+      </c>
+      <c r="N7">
+        <v>7653.299999999559</v>
+      </c>
+      <c r="O7">
+        <v>0.2980269132337158</v>
+      </c>
+      <c r="P7">
+        <v>26.7434262252103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>3.2</v>
+      </c>
+      <c r="H8">
+        <v>350</v>
+      </c>
+      <c r="I8">
+        <v>450</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>7082.300000000236</v>
+      </c>
+      <c r="L8">
+        <v>7604</v>
+      </c>
+      <c r="M8">
+        <v>-811</v>
+      </c>
+      <c r="N8">
+        <v>6271.300000000236</v>
+      </c>
+      <c r="O8">
+        <v>0.3515255128879537</v>
+      </c>
+      <c r="P8">
+        <v>21.91421333100458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>1.6</v>
+      </c>
+      <c r="H9">
+        <v>350</v>
+      </c>
+      <c r="I9">
+        <v>400</v>
+      </c>
+      <c r="J9">
+        <v>250</v>
+      </c>
+      <c r="K9">
+        <v>5078.499999999793</v>
+      </c>
+      <c r="L9">
+        <v>10307</v>
+      </c>
+      <c r="M9">
+        <v>-748.5999999999985</v>
+      </c>
+      <c r="N9">
+        <v>4329.899999999794</v>
+      </c>
+      <c r="O9">
+        <v>0.3081400989618706</v>
+      </c>
+      <c r="P9">
+        <v>15.1302524678948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>3.8</v>
+      </c>
+      <c r="H10">
+        <v>350</v>
+      </c>
+      <c r="I10">
+        <v>450</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>-631.3999999998778</v>
+      </c>
+      <c r="L10">
+        <v>6100</v>
+      </c>
+      <c r="M10">
+        <v>-673</v>
+      </c>
+      <c r="N10">
+        <v>-1304.399999999878</v>
+      </c>
+      <c r="O10">
+        <v>0.3926229508196721</v>
+      </c>
+      <c r="P10">
+        <v>-4.558050144142143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>1.5</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11">
+        <v>350</v>
+      </c>
+      <c r="J11">
+        <v>150</v>
+      </c>
+      <c r="K11">
+        <v>-3809.699999999739</v>
+      </c>
+      <c r="L11">
+        <v>16401</v>
+      </c>
+      <c r="M11">
+        <v>-748.5999999999985</v>
+      </c>
+      <c r="N11">
+        <v>-4558.299999999737</v>
+      </c>
+      <c r="O11">
+        <v>0.3132735808792147</v>
+      </c>
+      <c r="P11">
+        <v>-15.92836551061322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12">
+        <v>450</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12">
+        <v>-3952.200000000252</v>
+      </c>
+      <c r="L12">
+        <v>5709</v>
+      </c>
+      <c r="M12">
+        <v>-2008</v>
+      </c>
+      <c r="N12">
+        <v>-5960.200000000252</v>
+      </c>
+      <c r="O12">
+        <v>0.3214223156419688</v>
+      </c>
+      <c r="P12">
+        <v>-20.82711627500743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>3.4</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="I13">
+        <v>450</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>-6025.999999999589</v>
+      </c>
+      <c r="L13">
+        <v>7036</v>
+      </c>
+      <c r="M13">
+        <v>-673</v>
+      </c>
+      <c r="N13">
+        <v>-6698.999999999589</v>
+      </c>
+      <c r="O13">
+        <v>0.3854462762933485</v>
+      </c>
+      <c r="P13">
+        <v>-23.40875338516498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
         <v>0.6000000000000001</v>
       </c>
-      <c r="H7">
+      <c r="H14">
+        <v>250</v>
+      </c>
+      <c r="I14">
+        <v>350</v>
+      </c>
+      <c r="J14">
+        <v>150</v>
+      </c>
+      <c r="K14">
+        <v>-7971.299999999759</v>
+      </c>
+      <c r="L14">
+        <v>25838</v>
+      </c>
+      <c r="M14">
+        <v>-1050.5</v>
+      </c>
+      <c r="N14">
+        <v>-9021.799999999759</v>
+      </c>
+      <c r="O14">
+        <v>0.282026472637201</v>
+      </c>
+      <c r="P14">
+        <v>-31.5254651873845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>2.9</v>
+      </c>
+      <c r="H15">
+        <v>400</v>
+      </c>
+      <c r="I15">
+        <v>250</v>
+      </c>
+      <c r="J15">
+        <v>200</v>
+      </c>
+      <c r="K15">
+        <v>-9366.499999999771</v>
+      </c>
+      <c r="L15">
+        <v>7774</v>
+      </c>
+      <c r="M15">
+        <v>-811</v>
+      </c>
+      <c r="N15">
+        <v>-10177.49999999977</v>
+      </c>
+      <c r="O15">
+        <v>0.335477231798302</v>
+      </c>
+      <c r="P15">
+        <v>-35.5639032060794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>2.1</v>
+      </c>
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16">
+        <v>350</v>
+      </c>
+      <c r="J16">
+        <v>300</v>
+      </c>
+      <c r="K16">
+        <v>-8332.000000000342</v>
+      </c>
+      <c r="L16">
+        <v>7537</v>
+      </c>
+      <c r="M16">
+        <v>-2008</v>
+      </c>
+      <c r="N16">
+        <v>-10340.00000000034</v>
+      </c>
+      <c r="O16">
+        <v>0.314448719649728</v>
+      </c>
+      <c r="P16">
+        <v>-36.13173757316446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>2.3</v>
+      </c>
+      <c r="H17">
+        <v>300</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>-11301.59999999965</v>
+      </c>
+      <c r="L17">
+        <v>12644</v>
+      </c>
+      <c r="M17">
+        <v>-688</v>
+      </c>
+      <c r="N17">
+        <v>-11989.59999999965</v>
+      </c>
+      <c r="O17">
+        <v>0.3634925656437836</v>
+      </c>
+      <c r="P17">
+        <v>-41.89604263125587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <v>2023</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>1.7</v>
+      </c>
+      <c r="H18">
+        <v>250</v>
+      </c>
+      <c r="I18">
+        <v>450</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>-18744.69999999934</v>
+      </c>
+      <c r="L18">
+        <v>18579</v>
+      </c>
+      <c r="M18">
+        <v>-645.2999999999993</v>
+      </c>
+      <c r="N18">
+        <v>-19389.99999999934</v>
+      </c>
+      <c r="O18">
+        <v>0.3544862479143119</v>
+      </c>
+      <c r="P18">
+        <v>-67.75574386301858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19">
+        <v>2023</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>2.5</v>
+      </c>
+      <c r="H19">
+        <v>450</v>
+      </c>
+      <c r="I19">
+        <v>500</v>
+      </c>
+      <c r="J19">
+        <v>450</v>
+      </c>
+      <c r="K19">
+        <v>-18705.50000000012</v>
+      </c>
+      <c r="L19">
+        <v>4192</v>
+      </c>
+      <c r="M19">
+        <v>-1608</v>
+      </c>
+      <c r="N19">
+        <v>-20313.50000000012</v>
+      </c>
+      <c r="O19">
+        <v>0.3153625954198473</v>
+      </c>
+      <c r="P19">
+        <v>-70.98279025072112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20">
+        <v>2023</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="H20">
+        <v>150</v>
+      </c>
+      <c r="I20">
+        <v>300</v>
+      </c>
+      <c r="J20">
+        <v>250</v>
+      </c>
+      <c r="K20">
+        <v>-29072.29999999985</v>
+      </c>
+      <c r="L20">
+        <v>5637</v>
+      </c>
+      <c r="M20">
+        <v>-811</v>
+      </c>
+      <c r="N20">
+        <v>-29883.29999999985</v>
+      </c>
+      <c r="O20">
+        <v>0.2971438708532907</v>
+      </c>
+      <c r="P20">
+        <v>-104.4231676421765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21">
+        <v>2023</v>
+      </c>
+      <c r="F21">
         <v>100</v>
       </c>
-      <c r="I7">
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>400</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>-35815.29999999968</v>
+      </c>
+      <c r="L21">
+        <v>53283</v>
+      </c>
+      <c r="M21">
+        <v>-735</v>
+      </c>
+      <c r="N21">
+        <v>-36550.29999999968</v>
+      </c>
+      <c r="O21">
+        <v>0.3012030103410093</v>
+      </c>
+      <c r="P21">
+        <v>-127.7201013365936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>2020</v>
+      </c>
+      <c r="E22">
+        <v>2023</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+      <c r="G22">
+        <v>2.1</v>
+      </c>
+      <c r="H22">
+        <v>300</v>
+      </c>
+      <c r="I22">
         <v>450</v>
       </c>
-      <c r="J7">
+      <c r="J22">
+        <v>350</v>
+      </c>
+      <c r="K22">
+        <v>-43023.10000000019</v>
+      </c>
+      <c r="L22">
+        <v>6528</v>
+      </c>
+      <c r="M22">
+        <v>-2008</v>
+      </c>
+      <c r="N22">
+        <v>-45031.10000000019</v>
+      </c>
+      <c r="O22">
+        <v>0.3059129901960784</v>
+      </c>
+      <c r="P22">
+        <v>-157.3551148772611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23">
+        <v>2023</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-45137.59999999935</v>
+      </c>
+      <c r="L23">
+        <v>15058</v>
+      </c>
+      <c r="M23">
+        <v>-2008</v>
+      </c>
+      <c r="N23">
+        <v>-47145.59999999935</v>
+      </c>
+      <c r="O23">
+        <v>0.3588790011953779</v>
+      </c>
+      <c r="P23">
+        <v>-164.7439503800099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>2020</v>
+      </c>
+      <c r="E24">
+        <v>2023</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>3.8</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>400</v>
+      </c>
+      <c r="J24">
+        <v>350</v>
+      </c>
+      <c r="K24">
+        <v>-57567.50000000036</v>
+      </c>
+      <c r="L24">
+        <v>5691</v>
+      </c>
+      <c r="M24">
+        <v>-631.7000000000007</v>
+      </c>
+      <c r="N24">
+        <v>-58199.20000000036</v>
+      </c>
+      <c r="O24">
+        <v>0.1156211562115621</v>
+      </c>
+      <c r="P24">
+        <v>-203.369267056872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+      <c r="E25">
+        <v>2023</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>2.7</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>500</v>
+      </c>
+      <c r="J25">
+        <v>350</v>
+      </c>
+      <c r="K25">
+        <v>-70135.40000000005</v>
+      </c>
+      <c r="L25">
+        <v>7516</v>
+      </c>
+      <c r="M25">
+        <v>-1790.5</v>
+      </c>
+      <c r="N25">
+        <v>-71925.90000000005</v>
+      </c>
+      <c r="O25">
+        <v>0.1930548163916977</v>
+      </c>
+      <c r="P25">
+        <v>-251.3353717131128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>2020</v>
+      </c>
+      <c r="E26">
+        <v>2023</v>
+      </c>
+      <c r="F26">
+        <v>80</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26">
+        <v>500</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26">
+        <v>-77413.50000000003</v>
+      </c>
+      <c r="L26">
+        <v>8698</v>
+      </c>
+      <c r="M26">
+        <v>-608.5999999999985</v>
+      </c>
+      <c r="N26">
+        <v>-78022.10000000003</v>
+      </c>
+      <c r="O26">
+        <v>0.2585651873994022</v>
+      </c>
+      <c r="P26">
+        <v>-272.6377216738011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27">
+        <v>2023</v>
+      </c>
+      <c r="F27">
+        <v>60</v>
+      </c>
+      <c r="G27">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>250</v>
+      </c>
+      <c r="J27">
+        <v>200</v>
+      </c>
+      <c r="K27">
+        <v>-80122.0999999997</v>
+      </c>
+      <c r="L27">
+        <v>9540</v>
+      </c>
+      <c r="M27">
+        <v>-737.8999999999978</v>
+      </c>
+      <c r="N27">
+        <v>-80859.99999999969</v>
+      </c>
+      <c r="O27">
+        <v>0.2674004192872118</v>
+      </c>
+      <c r="P27">
+        <v>-282.5543810605388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+      <c r="E28">
+        <v>2023</v>
+      </c>
+      <c r="F28">
+        <v>90</v>
+      </c>
+      <c r="G28">
+        <v>3.2</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28">
+        <v>300</v>
+      </c>
+      <c r="J28">
         <v>150</v>
       </c>
-      <c r="K7">
+      <c r="K28">
+        <v>-87770.69999999975</v>
+      </c>
+      <c r="L28">
+        <v>7966</v>
+      </c>
+      <c r="M28">
+        <v>-619.0999999999985</v>
+      </c>
+      <c r="N28">
+        <v>-88389.79999999976</v>
+      </c>
+      <c r="O28">
+        <v>0.2043685664072307</v>
+      </c>
+      <c r="P28">
+        <v>-308.8662531667677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29">
+        <v>2023</v>
+      </c>
+      <c r="F29">
+        <v>70</v>
+      </c>
+      <c r="G29">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>450</v>
+      </c>
+      <c r="J29">
+        <v>150</v>
+      </c>
+      <c r="K29">
         <v>-151904.500000001</v>
       </c>
-      <c r="L7">
+      <c r="L29">
         <v>28243</v>
       </c>
-      <c r="M7">
+      <c r="M29">
         <v>-1048</v>
       </c>
-      <c r="N7">
+      <c r="N29">
         <v>-152952.500000001</v>
       </c>
-      <c r="O7">
+      <c r="O29">
         <v>0.2569132174344085</v>
       </c>
-      <c r="P7">
+      <c r="P29">
         <v>-534.4719140386162</v>
       </c>
     </row>
